--- a/src/templates/template.xlsx
+++ b/src/templates/template.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PMiller1\git\inventory\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pmiller1\git\inventory\src\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22477A00-CD28-4933-9224-A0E02CF30B2F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6A102BAD-975E-49D8-AD6C-3ED219F63D19}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="TEMPLATE" sheetId="1" r:id="rId1"/>
     <sheet name="NEW" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -73,7 +72,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -97,15 +96,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -139,19 +144,6 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -170,28 +162,127 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -200,6 +291,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -513,65 +611,57 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39175A70-03DE-4EE3-B630-B25C82CC4838}">
-  <dimension ref="A1:K2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="9.140625" style="5"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="14.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="3"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="4"/>
+      <c r="H1" s="11"/>
     </row>
-    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
+    <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -580,60 +670,48 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F721896-04F5-41D8-9A12-863F0C5B0B98}">
-  <dimension ref="A1:H2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.140625" style="5"/>
-    <col min="7" max="7" width="18.42578125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="31.5703125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" style="16" customWidth="1"/>
+    <col min="4" max="4" width="12" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" style="16"/>
+    <col min="7" max="7" width="18.42578125" style="16" customWidth="1"/>
+    <col min="8" max="8" width="31.5703125" style="17" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="14" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/templates/template.xlsx
+++ b/src/templates/template.xlsx
@@ -612,6 +612,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -665,7 +668,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
